--- a/toDo_list.xlsx
+++ b/toDo_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\PATAK_zimni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B414CD-3CF8-4D11-A212-6A5D8C1C59D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1016195F-27B2-4FF6-A255-81A0887B0CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7995" yWindow="3090" windowWidth="32235" windowHeight="24690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28950" yWindow="2115" windowWidth="28290" windowHeight="24420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
   <si>
     <t>datum</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Predn, PC</t>
+  </si>
+  <si>
+    <t>laborky</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -217,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -225,17 +228,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,7 +519,7 @@
   <dimension ref="C4:S108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1254,9 @@
       <c r="M33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N33" s="7"/>
+      <c r="N33" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
